--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
   <si>
     <t>nombre_base_datos</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>lps.lpc</t>
+  </si>
+  <si>
+    <t>est.lpc</t>
   </si>
   <si>
     <t>1</t>
@@ -406,13 +409,16 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" t="n">
         <v>1.83</v>
@@ -427,7 +433,7 @@
         <v>91.0</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H2" t="n">
         <v>0.767605633802817</v>
@@ -438,13 +444,16 @@
       <c r="J2" t="n">
         <v>1.07506822081099</v>
       </c>
+      <c r="K2" t="n">
+        <v>2.5630020904582</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="n">
         <v>1.7</v>
@@ -459,7 +468,7 @@
         <v>89.0</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H3" t="n">
         <v>0.751724137931034</v>
@@ -470,13 +479,16 @@
       <c r="J3" t="n">
         <v>1.04401379344107</v>
       </c>
+      <c r="K3" t="n">
+        <v>2.36100367048829</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" t="n">
         <v>1.76</v>
@@ -491,7 +503,7 @@
         <v>93.0</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H4" t="n">
         <v>0.801470588235294</v>
@@ -502,13 +514,16 @@
       <c r="J4" t="n">
         <v>1.04060202070019</v>
       </c>
+      <c r="K4" t="n">
+        <v>2.2851238502275</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
         <v>1.78</v>
@@ -523,7 +538,7 @@
         <v>91.0</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H5" t="n">
         <v>0.795620437956204</v>
@@ -534,13 +549,16 @@
       <c r="J5" t="n">
         <v>1.12943681621349</v>
       </c>
+      <c r="K5" t="n">
+        <v>2.52682992662221</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" t="n">
         <v>1.76</v>
@@ -555,7 +573,7 @@
         <v>81.0</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H6" t="n">
         <v>0.801470588235294</v>
@@ -566,13 +584,16 @@
       <c r="J6" t="n">
         <v>1.06404067304752</v>
       </c>
+      <c r="K6" t="n">
+        <v>2.33659427064821</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" t="n">
         <v>1.67</v>
@@ -587,7 +608,7 @@
         <v>77.0</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H7" t="n">
         <v>0.810606060606061</v>
@@ -598,13 +619,16 @@
       <c r="J7" t="n">
         <v>1.06340814341198</v>
       </c>
+      <c r="K7" t="n">
+        <v>2.19081954330596</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" t="n">
         <v>1.8</v>
@@ -619,7 +643,7 @@
         <v>94.0</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H8" t="n">
         <v>0.689873417721519</v>
@@ -630,13 +654,16 @@
       <c r="J8" t="n">
         <v>1.05037798651831</v>
       </c>
+      <c r="K8" t="n">
+        <v>2.74061926023676</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="n">
         <v>1.7</v>
@@ -651,7 +678,7 @@
         <v>94.0</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H9" t="n">
         <v>0.656441717791411</v>
@@ -662,13 +689,16 @@
       <c r="J9" t="n">
         <v>0.955848669469478</v>
       </c>
+      <c r="K9" t="n">
+        <v>2.47538005897189</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" t="n">
         <v>1.65</v>
@@ -683,7 +713,7 @@
         <v>58.0</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H10" t="n">
         <v>0.660194174757282</v>
@@ -694,13 +724,16 @@
       <c r="J10" t="n">
         <v>1.03946421824527</v>
       </c>
+      <c r="K10" t="n">
+        <v>2.59789623368799</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" t="n">
         <v>1.6</v>
@@ -715,7 +748,7 @@
         <v>57.0</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H11" t="n">
         <v>0.790697674418605</v>
@@ -726,13 +759,16 @@
       <c r="J11" t="n">
         <v>1.20730697868406</v>
       </c>
+      <c r="K11" t="n">
+        <v>2.44302118039599</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" t="n">
         <v>1.67</v>
@@ -747,7 +783,7 @@
         <v>58.0</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H12" t="n">
         <v>0.85</v>
@@ -758,13 +794,16 @@
       <c r="J12" t="n">
         <v>1.2782660036087</v>
       </c>
+      <c r="K12" t="n">
+        <v>2.51141673650181</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" t="n">
         <v>1.5</v>
@@ -779,7 +818,7 @@
         <v>54.0</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H13" t="n">
         <v>0.755555555555556</v>
@@ -790,13 +829,16 @@
       <c r="J13" t="n">
         <v>1.12851234350676</v>
       </c>
+      <c r="K13" t="n">
+        <v>2.24042891725606</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" t="n">
         <v>1.7</v>
@@ -811,7 +853,7 @@
         <v>51.0</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H14" t="n">
         <v>0.85</v>
@@ -822,13 +864,16 @@
       <c r="J14" t="n">
         <v>1.15080859512091</v>
       </c>
+      <c r="K14" t="n">
+        <v>2.30161719024181</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" t="n">
         <v>1.68</v>
@@ -843,7 +888,7 @@
         <v>58.0</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H15" t="n">
         <v>0.731182795698925</v>
@@ -854,13 +899,16 @@
       <c r="J15" t="n">
         <v>1.01151182732702</v>
       </c>
+      <c r="K15" t="n">
+        <v>2.32409717502314</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" t="n">
         <v>1.78</v>
@@ -875,7 +923,7 @@
         <v>68.0</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H16" t="n">
         <v>0.772727272727273</v>
@@ -886,13 +934,16 @@
       <c r="J16" t="n">
         <v>1.07393491843885</v>
       </c>
+      <c r="K16" t="n">
+        <v>2.47384067094501</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" t="n">
         <v>1.6</v>
@@ -907,7 +958,7 @@
         <v>55.0</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17" t="n">
         <v>0.755555555555556</v>
@@ -918,13 +969,16 @@
       <c r="J17" t="n">
         <v>1.14563541795001</v>
       </c>
+      <c r="K17" t="n">
+        <v>2.42605147330589</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" t="n">
         <v>1.62</v>
@@ -939,7 +993,7 @@
         <v>65.0</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H18" t="n">
         <v>0.772727272727273</v>
@@ -950,13 +1004,16 @@
       <c r="J18" t="n">
         <v>1.08936027244285</v>
       </c>
+      <c r="K18" t="n">
+        <v>2.28381177116843</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" t="n">
         <v>1.76</v>
@@ -971,7 +1028,7 @@
         <v>62.0</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H19" t="n">
         <v>0.764044943820225</v>
@@ -982,13 +1039,16 @@
       <c r="J19" t="n">
         <v>1.09918913881431</v>
       </c>
+      <c r="K19" t="n">
+        <v>2.53201451035107</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" t="n">
         <v>1.6</v>
@@ -1003,7 +1063,7 @@
         <v>55.0</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H20" t="n">
         <v>0.772727272727273</v>
@@ -1014,13 +1074,16 @@
       <c r="J20" t="n">
         <v>1.11109868496318</v>
       </c>
+      <c r="K20" t="n">
+        <v>2.30062786533552</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" t="n">
         <v>1.69</v>
@@ -1035,7 +1098,7 @@
         <v>50.0</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H21" t="n">
         <v>0.781609195402299</v>
@@ -1046,13 +1109,16 @@
       <c r="J21" t="n">
         <v>1.08142758895611</v>
       </c>
+      <c r="K21" t="n">
+        <v>2.33826909417966</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" t="n">
         <v>1.7</v>
@@ -1067,7 +1133,7 @@
         <v>55.0</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H22" t="n">
         <v>0.731182795698925</v>
@@ -1078,13 +1144,16 @@
       <c r="J22" t="n">
         <v>1.01227150569039</v>
       </c>
+      <c r="K22" t="n">
+        <v>2.35353125073016</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" t="n">
         <v>1.76</v>
@@ -1099,7 +1168,7 @@
         <v>60.0</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H23" t="n">
         <v>0.731182795698925</v>
@@ -1110,13 +1179,16 @@
       <c r="J23" t="n">
         <v>1.07301075398708</v>
       </c>
+      <c r="K23" t="n">
+        <v>2.58280000312656</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24" t="n">
         <v>1.78</v>
@@ -1131,7 +1203,7 @@
         <v>50.0</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H24" t="n">
         <v>0.829268292682927</v>
@@ -1142,13 +1214,16 @@
       <c r="J24" t="n">
         <v>1.09066565023851</v>
       </c>
+      <c r="K24" t="n">
+        <v>2.34108173983549</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" t="n">
         <v>1.65</v>
@@ -1163,7 +1238,7 @@
         <v>64.0</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H25" t="n">
         <v>0.647619047619048</v>
@@ -1174,13 +1249,16 @@
       <c r="J25" t="n">
         <v>1.09624926398694</v>
       </c>
+      <c r="K25" t="n">
+        <v>2.79301742626085</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" t="n">
         <v>1.64</v>
@@ -1195,7 +1273,7 @@
         <v>59.0</v>
       </c>
       <c r="G26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H26" t="n">
         <v>0.731182795698925</v>
@@ -1206,13 +1284,16 @@
       <c r="J26" t="n">
         <v>1.08293655969763</v>
       </c>
+      <c r="K26" t="n">
+        <v>2.42896300125122</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" t="n">
         <v>1.76</v>
@@ -1227,7 +1308,7 @@
         <v>47.0</v>
       </c>
       <c r="G27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H27" t="n">
         <v>0.860759493670886</v>
@@ -1238,13 +1319,16 @@
       <c r="J27" t="n">
         <v>1.05516736852804</v>
       </c>
+      <c r="K27" t="n">
+        <v>2.15750692529616</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C28" t="n">
         <v>1.77</v>
@@ -1259,7 +1343,7 @@
         <v>54.0</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H28" t="n">
         <v>0.8</v>
@@ -1270,13 +1354,16 @@
       <c r="J28" t="n">
         <v>1.09619853207294</v>
       </c>
+      <c r="K28" t="n">
+        <v>2.42533925221137</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" t="n">
         <v>1.6</v>
@@ -1291,7 +1378,7 @@
         <v>58.0</v>
       </c>
       <c r="G29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H29" t="n">
         <v>0.764044943820225</v>
@@ -1302,13 +1389,16 @@
       <c r="J29" t="n">
         <v>1.1560955074396</v>
       </c>
+      <c r="K29" t="n">
+        <v>2.4210000038147</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C30" t="n">
         <v>1.62</v>
@@ -1323,7 +1413,7 @@
         <v>59.0</v>
       </c>
       <c r="G30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H30" t="n">
         <v>0.747252747252747</v>
@@ -1334,13 +1424,16 @@
       <c r="J30" t="n">
         <v>1.11932326079288</v>
       </c>
+      <c r="K30" t="n">
+        <v>2.42662698685422</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" t="n">
         <v>1.84</v>
@@ -1355,7 +1448,7 @@
         <v>66.0</v>
       </c>
       <c r="G31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H31" t="n">
         <v>0.8</v>
@@ -1366,13 +1459,16 @@
       <c r="J31" t="n">
         <v>1.09698509864558</v>
       </c>
+      <c r="K31" t="n">
+        <v>2.52306572688483</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" t="n">
         <v>1.9</v>
@@ -1387,7 +1483,7 @@
         <v>71.0</v>
       </c>
       <c r="G32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H32" t="n">
         <v>0.68</v>
@@ -1398,13 +1494,16 @@
       <c r="J32" t="n">
         <v>1.04041874905427</v>
       </c>
+      <c r="K32" t="n">
+        <v>2.90705238706341</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C33" t="n">
         <v>1.63</v>
@@ -1419,7 +1518,7 @@
         <v>47.0</v>
       </c>
       <c r="G33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H33" t="n">
         <v>0.708333333333333</v>
@@ -1430,13 +1529,16 @@
       <c r="J33" t="n">
         <v>1.01582099037406</v>
       </c>
+      <c r="K33" t="n">
+        <v>2.33758336137842</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C34" t="n">
         <v>1.71</v>
@@ -1451,7 +1553,7 @@
         <v>57.0</v>
       </c>
       <c r="G34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H34" t="n">
         <v>0.739130434782609</v>
@@ -1462,13 +1564,16 @@
       <c r="J34" t="n">
         <v>1.13464673792107</v>
       </c>
+      <c r="K34" t="n">
+        <v>2.62503860014326</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" t="n">
         <v>1.53</v>
@@ -1483,7 +1588,7 @@
         <v>57.0</v>
       </c>
       <c r="G35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H35" t="n">
         <v>0.708333333333333</v>
@@ -1494,13 +1599,16 @@
       <c r="J35" t="n">
         <v>1.00695572855572</v>
       </c>
+      <c r="K35" t="n">
+        <v>2.17502437368035</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C36" t="n">
         <v>1.7</v>
@@ -1515,7 +1623,7 @@
         <v>57.0</v>
       </c>
       <c r="G36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H36" t="n">
         <v>0.686868686868687</v>
@@ -1526,13 +1634,16 @@
       <c r="J36" t="n">
         <v>1.07973537436037</v>
       </c>
+      <c r="K36" t="n">
+        <v>2.67234505154193</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C37" t="n">
         <v>1.8</v>
@@ -1547,7 +1658,7 @@
         <v>59.0</v>
       </c>
       <c r="G37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H37" t="n">
         <v>0.747252747252747</v>
@@ -1558,13 +1669,16 @@
       <c r="J37" t="n">
         <v>1.0836080579094</v>
       </c>
+      <c r="K37" t="n">
+        <v>2.61022058655234</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" t="n">
         <v>1.88</v>
@@ -1579,7 +1693,7 @@
         <v>55.0</v>
       </c>
       <c r="G38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H38" t="n">
         <v>0.80952380952381</v>
@@ -1590,13 +1704,16 @@
       <c r="J38" t="n">
         <v>1.10648644003997</v>
       </c>
+      <c r="K38" t="n">
+        <v>2.56965203839872</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C39" t="n">
         <v>1.77</v>
@@ -1611,7 +1728,7 @@
         <v>51.0</v>
       </c>
       <c r="G39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H39" t="n">
         <v>0.723404255319149</v>
@@ -1622,13 +1739,16 @@
       <c r="J39" t="n">
         <v>1.07498534295012</v>
       </c>
+      <c r="K39" t="n">
+        <v>2.63023619647119</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C40" t="n">
         <v>1.7</v>
@@ -1643,7 +1763,7 @@
         <v>55.0</v>
       </c>
       <c r="G40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H40" t="n">
         <v>0.731182795698925</v>
@@ -1654,13 +1774,16 @@
       <c r="J40" t="n">
         <v>1.09217181846304</v>
       </c>
+      <c r="K40" t="n">
+        <v>2.53929947792656</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" t="n">
         <v>1.79</v>
@@ -1675,7 +1798,7 @@
         <v>49.0</v>
       </c>
       <c r="G41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H41" t="n">
         <v>0.770114942528736</v>
@@ -1686,13 +1809,16 @@
       <c r="J41" t="n">
         <v>1.01746367991656</v>
       </c>
+      <c r="K41" t="n">
+        <v>2.36491968467769</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C42" t="n">
         <v>1.64</v>
@@ -1707,7 +1833,7 @@
         <v>49.0</v>
       </c>
       <c r="G42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H42" t="n">
         <v>0.779069767441861</v>
@@ -1718,13 +1844,16 @@
       <c r="J42" t="n">
         <v>1.09236836987873</v>
       </c>
+      <c r="K42" t="n">
+        <v>2.29951693862232</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C43" t="n">
         <v>1.65</v>
@@ -1739,7 +1868,7 @@
         <v>49.0</v>
       </c>
       <c r="G43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H43" t="n">
         <v>0.788235294117647</v>
@@ -1750,13 +1879,16 @@
       <c r="J43" t="n">
         <v>0.563073462691961</v>
       </c>
+      <c r="K43" t="n">
+        <v>1.1786724349634</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" t="n">
         <v>1.76</v>
@@ -1771,7 +1903,7 @@
         <v>45.0</v>
       </c>
       <c r="G44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H44" t="n">
         <v>0.871794871794872</v>
@@ -1782,13 +1914,16 @@
       <c r="J44" t="n">
         <v>1.00933190410973</v>
       </c>
+      <c r="K44" t="n">
+        <v>2.0376629970027</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C45" t="n">
         <v>1.63</v>
@@ -1803,7 +1938,7 @@
         <v>56.0</v>
       </c>
       <c r="G45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H45" t="n">
         <v>0.764044943820225</v>
@@ -1814,13 +1949,16 @@
       <c r="J45" t="n">
         <v>1.08026170496191</v>
       </c>
+      <c r="K45" t="n">
+        <v>2.30461125792387</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C46" t="n">
         <v>1.78</v>
@@ -1835,7 +1973,7 @@
         <v>62.0</v>
       </c>
       <c r="G46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H46" t="n">
         <v>0.701030927835051</v>
@@ -1846,13 +1984,16 @@
       <c r="J46" t="n">
         <v>1.08250259690432</v>
       </c>
+      <c r="K46" t="n">
+        <v>2.74860144678677</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C47" t="n">
         <v>1.68</v>
@@ -1867,7 +2008,7 @@
         <v>46.0</v>
       </c>
       <c r="G47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H47" t="n">
         <v>0.781609195402299</v>
@@ -1878,13 +2019,16 @@
       <c r="J47" t="n">
         <v>1.02086207236367</v>
       </c>
+      <c r="K47" t="n">
+        <v>2.1942529484805</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" t="n">
         <v>1.78</v>
@@ -1899,7 +2043,7 @@
         <v>47.0</v>
       </c>
       <c r="G48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H48" t="n">
         <v>0.839506172839506</v>
@@ -1909,6 +2053,9 @@
       </c>
       <c r="J48" t="n">
         <v>1.052466668023</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2.23153888522877</v>
       </c>
     </row>
   </sheetData>

--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="136">
   <si>
     <t>nombre_base_datos</t>
   </si>
@@ -185,6 +185,51 @@
     <t>47</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>db1</t>
   </si>
   <si>
@@ -324,6 +369,51 @@
   </si>
   <si>
     <t>db47</t>
+  </si>
+  <si>
+    <t>db48</t>
+  </si>
+  <si>
+    <t>db49</t>
+  </si>
+  <si>
+    <t>db50</t>
+  </si>
+  <si>
+    <t>db51</t>
+  </si>
+  <si>
+    <t>db52</t>
+  </si>
+  <si>
+    <t>db53</t>
+  </si>
+  <si>
+    <t>db54</t>
+  </si>
+  <si>
+    <t>db55</t>
+  </si>
+  <si>
+    <t>db56</t>
+  </si>
+  <si>
+    <t>db57</t>
+  </si>
+  <si>
+    <t>db58</t>
+  </si>
+  <si>
+    <t>db59</t>
+  </si>
+  <si>
+    <t>db60</t>
+  </si>
+  <si>
+    <t>db61</t>
+  </si>
+  <si>
+    <t>db62</t>
   </si>
   <si>
     <t>m</t>
@@ -418,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C2" t="n">
         <v>1.83</v>
@@ -433,19 +523,19 @@
         <v>91.0</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H2" t="n">
-        <v>0.767605633802817</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="I2" t="n">
         <v>0.7140064406552398</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07506822081099</v>
+        <v>1.0750682208109907</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5630020904582</v>
+        <v>2.5630020904582027</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +543,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C3" t="n">
         <v>1.7</v>
@@ -468,19 +558,19 @@
         <v>89.0</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H3" t="n">
-        <v>0.751724137931034</v>
+        <v>0.7517241379310344</v>
       </c>
       <c r="I3" t="n">
         <v>0.72003276456085</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04401379344107</v>
+        <v>1.044013793441071</v>
       </c>
       <c r="K3" t="n">
-        <v>2.36100367048829</v>
+        <v>2.3610036704882935</v>
       </c>
     </row>
     <row r="4">
@@ -488,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C4" t="n">
         <v>1.76</v>
@@ -503,19 +593,19 @@
         <v>93.0</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H4" t="n">
-        <v>0.801470588235294</v>
+        <v>0.8014705882352942</v>
       </c>
       <c r="I4" t="n">
         <v>0.7701989543476091</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04060202070019</v>
+        <v>1.0406020207001883</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2851238502275</v>
+        <v>2.285123850227496</v>
       </c>
     </row>
     <row r="5">
@@ -523,7 +613,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C5" t="n">
         <v>1.78</v>
@@ -538,19 +628,19 @@
         <v>91.0</v>
       </c>
       <c r="G5" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H5" t="n">
-        <v>0.795620437956204</v>
+        <v>0.7956204379562044</v>
       </c>
       <c r="I5" t="n">
         <v>0.7044399709083123</v>
       </c>
       <c r="J5" t="n">
-        <v>1.12943681621349</v>
+        <v>1.1294368162134851</v>
       </c>
       <c r="K5" t="n">
-        <v>2.52682992662221</v>
+        <v>2.5268299266222063</v>
       </c>
     </row>
     <row r="6">
@@ -558,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C6" t="n">
         <v>1.76</v>
@@ -573,19 +663,19 @@
         <v>81.0</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H6" t="n">
-        <v>0.801470588235294</v>
+        <v>0.8014705882352942</v>
       </c>
       <c r="I6" t="n">
         <v>0.7532330375490244</v>
       </c>
       <c r="J6" t="n">
-        <v>1.06404067304752</v>
+        <v>1.0640406730475231</v>
       </c>
       <c r="K6" t="n">
-        <v>2.33659427064821</v>
+        <v>2.336594270648212</v>
       </c>
     </row>
     <row r="7">
@@ -593,7 +683,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C7" t="n">
         <v>1.67</v>
@@ -608,19 +698,19 @@
         <v>77.0</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H7" t="n">
-        <v>0.810606060606061</v>
+        <v>0.8106060606060606</v>
       </c>
       <c r="I7" t="n">
         <v>0.7622718197410093</v>
       </c>
       <c r="J7" t="n">
-        <v>1.06340814341198</v>
+        <v>1.063408143411983</v>
       </c>
       <c r="K7" t="n">
-        <v>2.19081954330596</v>
+        <v>2.1908195433059583</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C8" t="n">
         <v>1.8</v>
@@ -643,7 +733,7 @@
         <v>94.0</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H8" t="n">
         <v>0.689873417721519</v>
@@ -652,10 +742,10 @@
         <v>0.6567858681123407</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05037798651831</v>
+        <v>1.0503779865183074</v>
       </c>
       <c r="K8" t="n">
-        <v>2.74061926023676</v>
+        <v>2.7406192602367576</v>
       </c>
     </row>
     <row r="9">
@@ -663,7 +753,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C9" t="n">
         <v>1.7</v>
@@ -678,7 +768,7 @@
         <v>94.0</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H9" t="n">
         <v>0.656441717791411</v>
@@ -687,10 +777,10 @@
         <v>0.686763228070144</v>
       </c>
       <c r="J9" t="n">
-        <v>0.955848669469478</v>
+        <v>0.9558486694694783</v>
       </c>
       <c r="K9" t="n">
-        <v>2.47538005897189</v>
+        <v>2.475380058971892</v>
       </c>
     </row>
     <row r="10">
@@ -698,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C10" t="n">
         <v>1.65</v>
@@ -713,19 +803,19 @@
         <v>58.0</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H10" t="n">
-        <v>0.660194174757282</v>
+        <v>0.6601941747572816</v>
       </c>
       <c r="I10" t="n">
         <v>0.6351292936968648</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03946421824527</v>
+        <v>1.0394642182452694</v>
       </c>
       <c r="K10" t="n">
-        <v>2.59789623368799</v>
+        <v>2.5978962336879925</v>
       </c>
     </row>
     <row r="11">
@@ -733,7 +823,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C11" t="n">
         <v>1.6</v>
@@ -748,19 +838,19 @@
         <v>57.0</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H11" t="n">
-        <v>0.790697674418605</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="I11" t="n">
         <v>0.6549267819858434</v>
       </c>
       <c r="J11" t="n">
-        <v>1.20730697868406</v>
+        <v>1.207306978684063</v>
       </c>
       <c r="K11" t="n">
-        <v>2.44302118039599</v>
+        <v>2.4430211803959865</v>
       </c>
     </row>
     <row r="12">
@@ -768,7 +858,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C12" t="n">
         <v>1.67</v>
@@ -783,7 +873,7 @@
         <v>58.0</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H12" t="n">
         <v>0.85</v>
@@ -792,10 +882,10 @@
         <v>0.6649633156168938</v>
       </c>
       <c r="J12" t="n">
-        <v>1.2782660036087</v>
+        <v>1.2782660036087037</v>
       </c>
       <c r="K12" t="n">
-        <v>2.51141673650181</v>
+        <v>2.5114167365018063</v>
       </c>
     </row>
     <row r="13">
@@ -803,7 +893,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C13" t="n">
         <v>1.5</v>
@@ -818,19 +908,19 @@
         <v>54.0</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H13" t="n">
-        <v>0.755555555555556</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="I13" t="n">
         <v>0.6695146578616342</v>
       </c>
       <c r="J13" t="n">
-        <v>1.12851234350676</v>
+        <v>1.1285123435067541</v>
       </c>
       <c r="K13" t="n">
-        <v>2.24042891725606</v>
+        <v>2.240428917256056</v>
       </c>
     </row>
     <row r="14">
@@ -838,7 +928,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C14" t="n">
         <v>1.7</v>
@@ -853,7 +943,7 @@
         <v>51.0</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H14" t="n">
         <v>0.85</v>
@@ -862,10 +952,10 @@
         <v>0.7386110979738528</v>
       </c>
       <c r="J14" t="n">
-        <v>1.15080859512091</v>
+        <v>1.1508085951209068</v>
       </c>
       <c r="K14" t="n">
-        <v>2.30161719024181</v>
+        <v>2.3016171902418137</v>
       </c>
     </row>
     <row r="15">
@@ -873,7 +963,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C15" t="n">
         <v>1.68</v>
@@ -888,19 +978,19 @@
         <v>58.0</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H15" t="n">
-        <v>0.731182795698925</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="I15" t="n">
         <v>0.7228613407626885</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01151182732702</v>
+        <v>1.0115118273270172</v>
       </c>
       <c r="K15" t="n">
-        <v>2.32409717502314</v>
+        <v>2.3240971750231347</v>
       </c>
     </row>
     <row r="16">
@@ -908,7 +998,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C16" t="n">
         <v>1.78</v>
@@ -923,19 +1013,19 @@
         <v>68.0</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H16" t="n">
-        <v>0.772727272727273</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="I16" t="n">
         <v>0.7195289579098219</v>
       </c>
       <c r="J16" t="n">
-        <v>1.07393491843885</v>
+        <v>1.0739349184388465</v>
       </c>
       <c r="K16" t="n">
-        <v>2.47384067094501</v>
+        <v>2.4738406709450134</v>
       </c>
     </row>
     <row r="17">
@@ -943,7 +1033,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C17" t="n">
         <v>1.6</v>
@@ -958,19 +1048,19 @@
         <v>55.0</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H17" t="n">
-        <v>0.755555555555556</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="I17" t="n">
         <v>0.65950785364819</v>
       </c>
       <c r="J17" t="n">
-        <v>1.14563541795001</v>
+        <v>1.1456354179500061</v>
       </c>
       <c r="K17" t="n">
-        <v>2.42605147330589</v>
+        <v>2.426051473305895</v>
       </c>
     </row>
     <row r="18">
@@ -978,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C18" t="n">
         <v>1.62</v>
@@ -993,19 +1083,19 @@
         <v>65.0</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H18" t="n">
-        <v>0.772727272727273</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="I18" t="n">
         <v>0.7093404195789684</v>
       </c>
       <c r="J18" t="n">
-        <v>1.08936027244285</v>
+        <v>1.089360272442853</v>
       </c>
       <c r="K18" t="n">
-        <v>2.28381177116843</v>
+        <v>2.2838117711684287</v>
       </c>
     </row>
     <row r="19">
@@ -1013,7 +1103,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C19" t="n">
         <v>1.76</v>
@@ -1028,19 +1118,19 @@
         <v>62.0</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H19" t="n">
-        <v>0.764044943820225</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="I19" t="n">
         <v>0.69509870216185</v>
       </c>
       <c r="J19" t="n">
-        <v>1.09918913881431</v>
+        <v>1.0991891388143047</v>
       </c>
       <c r="K19" t="n">
-        <v>2.53201451035107</v>
+        <v>2.5320145103510687</v>
       </c>
     </row>
     <row r="20">
@@ -1048,7 +1138,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C20" t="n">
         <v>1.6</v>
@@ -1063,16 +1153,16 @@
         <v>55.0</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H20" t="n">
-        <v>0.772727272727273</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="I20" t="n">
         <v>0.6954623231804846</v>
       </c>
       <c r="J20" t="n">
-        <v>1.11109868496318</v>
+        <v>1.1110986849631774</v>
       </c>
       <c r="K20" t="n">
         <v>2.30062786533552</v>
@@ -1083,7 +1173,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C21" t="n">
         <v>1.69</v>
@@ -1098,19 +1188,19 @@
         <v>50.0</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H21" t="n">
-        <v>0.781609195402299</v>
+        <v>0.7816091954022989</v>
       </c>
       <c r="I21" t="n">
         <v>0.7227568478780702</v>
       </c>
       <c r="J21" t="n">
-        <v>1.08142758895611</v>
+        <v>1.0814275889561094</v>
       </c>
       <c r="K21" t="n">
-        <v>2.33826909417966</v>
+        <v>2.338269094179658</v>
       </c>
     </row>
     <row r="22">
@@ -1118,7 +1208,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C22" t="n">
         <v>1.7</v>
@@ -1133,10 +1223,10 @@
         <v>55.0</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H22" t="n">
-        <v>0.731182795698925</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="I22" t="n">
         <v>0.7223188557503089</v>
@@ -1145,7 +1235,7 @@
         <v>1.01227150569039</v>
       </c>
       <c r="K22" t="n">
-        <v>2.35353125073016</v>
+        <v>2.3535312507301565</v>
       </c>
     </row>
     <row r="23">
@@ -1153,7 +1243,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C23" t="n">
         <v>1.76</v>
@@ -1168,19 +1258,19 @@
         <v>60.0</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H23" t="n">
-        <v>0.731182795698925</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="I23" t="n">
         <v>0.6814310042858402</v>
       </c>
       <c r="J23" t="n">
-        <v>1.07301075398708</v>
+        <v>1.0730107539870832</v>
       </c>
       <c r="K23" t="n">
-        <v>2.58280000312656</v>
+        <v>2.5828000031265557</v>
       </c>
     </row>
     <row r="24">
@@ -1188,7 +1278,7 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C24" t="n">
         <v>1.78</v>
@@ -1203,19 +1293,19 @@
         <v>50.0</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H24" t="n">
-        <v>0.829268292682927</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="I24" t="n">
         <v>0.7603322727745007</v>
       </c>
       <c r="J24" t="n">
-        <v>1.09066565023851</v>
+        <v>1.0906656502385124</v>
       </c>
       <c r="K24" t="n">
-        <v>2.34108173983549</v>
+        <v>2.3410817398354897</v>
       </c>
     </row>
     <row r="25">
@@ -1223,7 +1313,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C25" t="n">
         <v>1.65</v>
@@ -1238,19 +1328,19 @@
         <v>64.0</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H25" t="n">
-        <v>0.647619047619048</v>
+        <v>0.6476190476190476</v>
       </c>
       <c r="I25" t="n">
         <v>0.5907589349375942</v>
       </c>
       <c r="J25" t="n">
-        <v>1.09624926398694</v>
+        <v>1.0962492639869423</v>
       </c>
       <c r="K25" t="n">
-        <v>2.79301742626085</v>
+        <v>2.793017426260849</v>
       </c>
     </row>
     <row r="26">
@@ -1258,7 +1348,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C26" t="n">
         <v>1.64</v>
@@ -1273,19 +1363,19 @@
         <v>59.0</v>
       </c>
       <c r="G26" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H26" t="n">
-        <v>0.731182795698925</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="I26" t="n">
         <v>0.6751852536062485</v>
       </c>
       <c r="J26" t="n">
-        <v>1.08293655969763</v>
+        <v>1.0829365596976332</v>
       </c>
       <c r="K26" t="n">
-        <v>2.42896300125122</v>
+        <v>2.428963001251221</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1383,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C27" t="n">
         <v>1.76</v>
@@ -1308,16 +1398,16 @@
         <v>47.0</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H27" t="n">
-        <v>0.860759493670886</v>
+        <v>0.8607594936708861</v>
       </c>
       <c r="I27" t="n">
         <v>0.8157563618287833</v>
       </c>
       <c r="J27" t="n">
-        <v>1.05516736852804</v>
+        <v>1.0551673685280414</v>
       </c>
       <c r="K27" t="n">
         <v>2.15750692529616</v>
@@ -1328,7 +1418,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C28" t="n">
         <v>1.77</v>
@@ -1343,7 +1433,7 @@
         <v>54.0</v>
       </c>
       <c r="G28" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H28" t="n">
         <v>0.8</v>
@@ -1352,10 +1442,10 @@
         <v>0.7297948105140969</v>
       </c>
       <c r="J28" t="n">
-        <v>1.09619853207294</v>
+        <v>1.0961985320729368</v>
       </c>
       <c r="K28" t="n">
-        <v>2.42533925221137</v>
+        <v>2.4253392522113724</v>
       </c>
     </row>
     <row r="29">
@@ -1363,7 +1453,7 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C29" t="n">
         <v>1.6</v>
@@ -1378,19 +1468,19 @@
         <v>58.0</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H29" t="n">
-        <v>0.764044943820225</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="I29" t="n">
         <v>0.660883931218062</v>
       </c>
       <c r="J29" t="n">
-        <v>1.1560955074396</v>
+        <v>1.1560955074396024</v>
       </c>
       <c r="K29" t="n">
-        <v>2.4210000038147</v>
+        <v>2.4210000038146973</v>
       </c>
     </row>
     <row r="30">
@@ -1398,7 +1488,7 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C30" t="n">
         <v>1.62</v>
@@ -1413,19 +1503,19 @@
         <v>59.0</v>
       </c>
       <c r="G30" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H30" t="n">
-        <v>0.747252747252747</v>
+        <v>0.7472527472527473</v>
       </c>
       <c r="I30" t="n">
         <v>0.667593333782257</v>
       </c>
       <c r="J30" t="n">
-        <v>1.11932326079288</v>
+        <v>1.1193232607928827</v>
       </c>
       <c r="K30" t="n">
-        <v>2.42662698685422</v>
+        <v>2.426626986854217</v>
       </c>
     </row>
     <row r="31">
@@ -1433,7 +1523,7 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C31" t="n">
         <v>1.84</v>
@@ -1448,7 +1538,7 @@
         <v>66.0</v>
       </c>
       <c r="G31" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H31" t="n">
         <v>0.8</v>
@@ -1457,10 +1547,10 @@
         <v>0.7292715288363912</v>
       </c>
       <c r="J31" t="n">
-        <v>1.09698509864558</v>
+        <v>1.0969850986455778</v>
       </c>
       <c r="K31" t="n">
-        <v>2.52306572688483</v>
+        <v>2.523065726884829</v>
       </c>
     </row>
     <row r="32">
@@ -1468,7 +1558,7 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C32" t="n">
         <v>1.9</v>
@@ -1483,7 +1573,7 @@
         <v>71.0</v>
       </c>
       <c r="G32" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H32" t="n">
         <v>0.68</v>
@@ -1492,7 +1582,7 @@
         <v>0.6535829930190233</v>
       </c>
       <c r="J32" t="n">
-        <v>1.04041874905427</v>
+        <v>1.0404187490542731</v>
       </c>
       <c r="K32" t="n">
         <v>2.90705238706341</v>
@@ -1503,7 +1593,7 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C33" t="n">
         <v>1.63</v>
@@ -1518,19 +1608,19 @@
         <v>47.0</v>
       </c>
       <c r="G33" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H33" t="n">
-        <v>0.708333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="I33" t="n">
         <v>0.697301335614754</v>
       </c>
       <c r="J33" t="n">
-        <v>1.01582099037406</v>
+        <v>1.0158209903740587</v>
       </c>
       <c r="K33" t="n">
-        <v>2.33758336137842</v>
+        <v>2.337583361378422</v>
       </c>
     </row>
     <row r="34">
@@ -1538,7 +1628,7 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C34" t="n">
         <v>1.71</v>
@@ -1553,19 +1643,19 @@
         <v>57.0</v>
       </c>
       <c r="G34" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H34" t="n">
-        <v>0.739130434782609</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="I34" t="n">
         <v>0.6514189924318351</v>
       </c>
       <c r="J34" t="n">
-        <v>1.13464673792107</v>
+        <v>1.134646737921065</v>
       </c>
       <c r="K34" t="n">
-        <v>2.62503860014326</v>
+        <v>2.625038600143264</v>
       </c>
     </row>
     <row r="35">
@@ -1573,7 +1663,7 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C35" t="n">
         <v>1.53</v>
@@ -1588,19 +1678,19 @@
         <v>57.0</v>
       </c>
       <c r="G35" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H35" t="n">
-        <v>0.708333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="I35" t="n">
         <v>0.7034403929051567</v>
       </c>
       <c r="J35" t="n">
-        <v>1.00695572855572</v>
+        <v>1.0069557285557191</v>
       </c>
       <c r="K35" t="n">
-        <v>2.17502437368035</v>
+        <v>2.1750243736803534</v>
       </c>
     </row>
     <row r="36">
@@ -1608,7 +1698,7 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C36" t="n">
         <v>1.7</v>
@@ -1623,19 +1713,19 @@
         <v>57.0</v>
       </c>
       <c r="G36" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H36" t="n">
-        <v>0.686868686868687</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="I36" t="n">
         <v>0.6361453956026794</v>
       </c>
       <c r="J36" t="n">
-        <v>1.07973537436037</v>
+        <v>1.0797353743603735</v>
       </c>
       <c r="K36" t="n">
-        <v>2.67234505154193</v>
+        <v>2.6723450515419245</v>
       </c>
     </row>
     <row r="37">
@@ -1643,7 +1733,7 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C37" t="n">
         <v>1.8</v>
@@ -1658,19 +1748,19 @@
         <v>59.0</v>
       </c>
       <c r="G37" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H37" t="n">
-        <v>0.747252747252747</v>
+        <v>0.7472527472527473</v>
       </c>
       <c r="I37" t="n">
         <v>0.6895968904978625</v>
       </c>
       <c r="J37" t="n">
-        <v>1.0836080579094</v>
+        <v>1.083608057909396</v>
       </c>
       <c r="K37" t="n">
-        <v>2.61022058655234</v>
+        <v>2.610220586552339</v>
       </c>
     </row>
     <row r="38">
@@ -1678,7 +1768,7 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C38" t="n">
         <v>1.88</v>
@@ -1693,19 +1783,19 @@
         <v>55.0</v>
       </c>
       <c r="G38" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H38" t="n">
-        <v>0.80952380952381</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="I38" t="n">
         <v>0.731616565942339</v>
       </c>
       <c r="J38" t="n">
-        <v>1.10648644003997</v>
+        <v>1.1064864400399739</v>
       </c>
       <c r="K38" t="n">
-        <v>2.56965203839872</v>
+        <v>2.569652038398716</v>
       </c>
     </row>
     <row r="39">
@@ -1713,7 +1803,7 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C39" t="n">
         <v>1.77</v>
@@ -1728,7 +1818,7 @@
         <v>51.0</v>
       </c>
       <c r="G39" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H39" t="n">
         <v>0.723404255319149</v>
@@ -1737,10 +1827,10 @@
         <v>0.6729433662173328</v>
       </c>
       <c r="J39" t="n">
-        <v>1.07498534295012</v>
+        <v>1.074985342950122</v>
       </c>
       <c r="K39" t="n">
-        <v>2.63023619647119</v>
+        <v>2.6302361964711953</v>
       </c>
     </row>
     <row r="40">
@@ -1748,7 +1838,7 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C40" t="n">
         <v>1.7</v>
@@ -1763,19 +1853,19 @@
         <v>55.0</v>
       </c>
       <c r="G40" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H40" t="n">
-        <v>0.731182795698925</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="I40" t="n">
         <v>0.6694759774408804</v>
       </c>
       <c r="J40" t="n">
-        <v>1.09217181846304</v>
+        <v>1.092171818463036</v>
       </c>
       <c r="K40" t="n">
-        <v>2.53929947792656</v>
+        <v>2.5392994779265585</v>
       </c>
     </row>
     <row r="41">
@@ -1783,7 +1873,7 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C41" t="n">
         <v>1.79</v>
@@ -1798,19 +1888,19 @@
         <v>49.0</v>
       </c>
       <c r="G41" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H41" t="n">
-        <v>0.770114942528736</v>
+        <v>0.7701149425287356</v>
       </c>
       <c r="I41" t="n">
         <v>0.756896740129233</v>
       </c>
       <c r="J41" t="n">
-        <v>1.01746367991656</v>
+        <v>1.0174636799165573</v>
       </c>
       <c r="K41" t="n">
-        <v>2.36491968467769</v>
+        <v>2.3649196846776936</v>
       </c>
     </row>
     <row r="42">
@@ -1818,7 +1908,7 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C42" t="n">
         <v>1.64</v>
@@ -1833,19 +1923,19 @@
         <v>49.0</v>
       </c>
       <c r="G42" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H42" t="n">
-        <v>0.779069767441861</v>
+        <v>0.7790697674418605</v>
       </c>
       <c r="I42" t="n">
         <v>0.7131932678793632</v>
       </c>
       <c r="J42" t="n">
-        <v>1.09236836987873</v>
+        <v>1.0923683698787245</v>
       </c>
       <c r="K42" t="n">
-        <v>2.29951693862232</v>
+        <v>2.2995169386223178</v>
       </c>
     </row>
     <row r="43">
@@ -1853,34 +1943,34 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C43" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="D43" t="n">
         <v>67.0</v>
       </c>
       <c r="E43" t="n">
-        <v>85.0</v>
+        <v>89.0</v>
       </c>
       <c r="F43" t="n">
-        <v>49.0</v>
+        <v>59.0</v>
       </c>
       <c r="G43" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="H43" t="n">
-        <v>0.788235294117647</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="I43" t="n">
-        <v>1.3998800269315195</v>
+        <v>0.6728335446497741</v>
       </c>
       <c r="J43" t="n">
-        <v>0.563073462691961</v>
+        <v>1.1188636398262515</v>
       </c>
       <c r="K43" t="n">
-        <v>1.1786724349634</v>
+        <v>2.615802993169911</v>
       </c>
     </row>
     <row r="44">
@@ -1888,7 +1978,7 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C44" t="n">
         <v>1.76</v>
@@ -1903,19 +1993,19 @@
         <v>45.0</v>
       </c>
       <c r="G44" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H44" t="n">
-        <v>0.871794871794872</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="I44" t="n">
         <v>0.8637345834855303</v>
       </c>
       <c r="J44" t="n">
-        <v>1.00933190410973</v>
+        <v>1.0093319041097264</v>
       </c>
       <c r="K44" t="n">
-        <v>2.0376629970027</v>
+        <v>2.0376629970026947</v>
       </c>
     </row>
     <row r="45">
@@ -1923,7 +2013,7 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C45" t="n">
         <v>1.63</v>
@@ -1938,19 +2028,19 @@
         <v>56.0</v>
       </c>
       <c r="G45" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H45" t="n">
-        <v>0.764044943820225</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="I45" t="n">
         <v>0.7072776349571406</v>
       </c>
       <c r="J45" t="n">
-        <v>1.08026170496191</v>
+        <v>1.0802617049619052</v>
       </c>
       <c r="K45" t="n">
-        <v>2.30461125792387</v>
+        <v>2.3046112579238764</v>
       </c>
     </row>
     <row r="46">
@@ -1958,7 +2048,7 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C46" t="n">
         <v>1.78</v>
@@ -1973,19 +2063,19 @@
         <v>62.0</v>
       </c>
       <c r="G46" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H46" t="n">
-        <v>0.701030927835051</v>
+        <v>0.7010309278350515</v>
       </c>
       <c r="I46" t="n">
         <v>0.647602074895542</v>
       </c>
       <c r="J46" t="n">
-        <v>1.08250259690432</v>
+        <v>1.082502596904322</v>
       </c>
       <c r="K46" t="n">
-        <v>2.74860144678677</v>
+        <v>2.7486014467867688</v>
       </c>
     </row>
     <row r="47">
@@ -1993,7 +2083,7 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C47" t="n">
         <v>1.68</v>
@@ -2008,19 +2098,19 @@
         <v>46.0</v>
       </c>
       <c r="G47" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H47" t="n">
-        <v>0.781609195402299</v>
+        <v>0.7816091954022989</v>
       </c>
       <c r="I47" t="n">
         <v>0.7656364327382535</v>
       </c>
       <c r="J47" t="n">
-        <v>1.02086207236367</v>
+        <v>1.020862072363667</v>
       </c>
       <c r="K47" t="n">
-        <v>2.1942529484805</v>
+        <v>2.1942529484804933</v>
       </c>
     </row>
     <row r="48">
@@ -2028,7 +2118,7 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C48" t="n">
         <v>1.78</v>
@@ -2043,19 +2133,544 @@
         <v>47.0</v>
       </c>
       <c r="G48" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="H48" t="n">
-        <v>0.839506172839506</v>
+        <v>0.8395061728395061</v>
       </c>
       <c r="I48" t="n">
         <v>0.7976558292496513</v>
       </c>
       <c r="J48" t="n">
-        <v>1.052466668023</v>
+        <v>1.0524666680230033</v>
       </c>
       <c r="K48" t="n">
-        <v>2.23153888522877</v>
+        <v>2.231538885228774</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D49" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>134</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.8395061728395061</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.6936851074658369</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.2102121896581883</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2.5660057868370236</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D50" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.7601326155123481</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.1182259288099077</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2.3022298534321632</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D51" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.6887253857504702</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.1753941792659657</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2.497366926769805</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D52" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>134</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.7640449438202247</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.7537686207359592</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.0136332593339212</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2.242067331417869</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D53" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.6924943062550327</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.1689970620865684</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2.296047759004148</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D54" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.8701298701298701</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.8509962687596475</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.022483766465992</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2.0211604482202388</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D55" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>135</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.6374504384390557</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.0257207688918482</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.4786240697692423</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D56" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>134</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.6652115153863922</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.0874800549701176</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2.5856437542289497</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D57" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>134</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.706146688600143</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.1982692262301078</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2.3791090818968685</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D58" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>134</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.6849156428845471</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.1929544597500708</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2.511258164226119</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D59" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>134</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.7098232213662876</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.1404583354791007</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2.5076666223652224</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D60" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>134</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.8589743589743589</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.812773837989379</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.0568430217922242</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2.1654240303229333</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D61" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>134</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.6907216494845361</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.685937448129109</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.0069746904305574</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2.4492029186949797</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D62" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>134</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.8441558441558441</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.6618547176205479</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.2754397931780135</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2.7196300820688104</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D63" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>134</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.6541538774493242</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.1040555549992457</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2.5987769217674552</v>
       </c>
     </row>
   </sheetData>

--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -38,7 +38,7 @@
     <t>long_paso_c</t>
   </si>
   <si>
-    <t>lps.lpc</t>
+    <t>lpr.lpc</t>
   </si>
   <si>
     <t>est.lpc</t>

--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -41,7 +41,7 @@
     <t>lpr.lpc</t>
   </si>
   <si>
-    <t>est.lpc</t>
+    <t>lpc.est</t>
   </si>
   <si>
     <t>1</t>
@@ -532,10 +532,10 @@
         <v>0.7140064406552398</v>
       </c>
       <c r="J2" t="n">
-        <v>1.0750682208109907</v>
+        <v>1.0750682202918906</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5630020904582027</v>
+        <v>0.3901674540983606</v>
       </c>
     </row>
     <row r="3">
@@ -567,10 +567,10 @@
         <v>0.72003276456085</v>
       </c>
       <c r="J3" t="n">
-        <v>1.044013793441071</v>
+        <v>1.0440137928043238</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3610036704882935</v>
+        <v>0.42354868529411765</v>
       </c>
     </row>
     <row r="4">
@@ -602,10 +602,10 @@
         <v>0.7701989543476091</v>
       </c>
       <c r="J4" t="n">
-        <v>1.0406020207001883</v>
+        <v>1.0406020211698368</v>
       </c>
       <c r="K4" t="n">
-        <v>2.285123850227496</v>
+        <v>0.4376130420454546</v>
       </c>
     </row>
     <row r="5">
@@ -637,10 +637,10 @@
         <v>0.7044399709083123</v>
       </c>
       <c r="J5" t="n">
-        <v>1.1294368162134851</v>
+        <v>1.1294368160664814</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5268299266222063</v>
+        <v>0.3957527926966292</v>
       </c>
     </row>
     <row r="6">
@@ -672,10 +672,10 @@
         <v>0.7532330375490244</v>
       </c>
       <c r="J6" t="n">
-        <v>1.0640406730475231</v>
+        <v>1.0640406724104607</v>
       </c>
       <c r="K6" t="n">
-        <v>2.336594270648212</v>
+        <v>0.42797331704545455</v>
       </c>
     </row>
     <row r="7">
@@ -707,10 +707,10 @@
         <v>0.7622718197410093</v>
       </c>
       <c r="J7" t="n">
-        <v>1.063408143411983</v>
+        <v>1.0634081430506779</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1908195433059583</v>
+        <v>0.45645019161676653</v>
       </c>
     </row>
     <row r="8">
@@ -742,10 +742,10 @@
         <v>0.6567858681123407</v>
       </c>
       <c r="J8" t="n">
-        <v>1.0503779865183074</v>
+        <v>1.0503779866979703</v>
       </c>
       <c r="K8" t="n">
-        <v>2.7406192602367576</v>
+        <v>0.3648810377777778</v>
       </c>
     </row>
     <row r="9">
@@ -777,10 +777,10 @@
         <v>0.686763228070144</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9558486694694783</v>
+        <v>0.9558486695671059</v>
       </c>
       <c r="K9" t="n">
-        <v>2.475380058971892</v>
+        <v>0.40397836941176474</v>
       </c>
     </row>
     <row r="10">
@@ -812,10 +812,10 @@
         <v>0.6351292936968648</v>
       </c>
       <c r="J10" t="n">
-        <v>1.0394642182452694</v>
+        <v>1.0394642177491527</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5978962336879925</v>
+        <v>0.38492684484848483</v>
       </c>
     </row>
     <row r="11">
@@ -847,10 +847,10 @@
         <v>0.6549267819858434</v>
       </c>
       <c r="J11" t="n">
-        <v>1.207306978684063</v>
+        <v>1.2073069786579664</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4430211803959865</v>
+        <v>0.40932923875</v>
       </c>
     </row>
     <row r="12">
@@ -882,10 +882,10 @@
         <v>0.6649633156168938</v>
       </c>
       <c r="J12" t="n">
-        <v>1.2782660036087037</v>
+        <v>1.2782660028722546</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5114167365018063</v>
+        <v>0.3981816263473054</v>
       </c>
     </row>
     <row r="13">
@@ -917,10 +917,10 @@
         <v>0.6695146578616342</v>
       </c>
       <c r="J13" t="n">
-        <v>1.1285123435067541</v>
+        <v>1.1285123432735293</v>
       </c>
       <c r="K13" t="n">
-        <v>2.240428917256056</v>
+        <v>0.4463431053333333</v>
       </c>
     </row>
     <row r="14">
@@ -952,10 +952,10 @@
         <v>0.7386110979738528</v>
       </c>
       <c r="J14" t="n">
-        <v>1.1508085951209068</v>
+        <v>1.1508085950801676</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3016171902418137</v>
+        <v>0.43447711647058823</v>
       </c>
     </row>
     <row r="15">
@@ -987,10 +987,10 @@
         <v>0.7228613407626885</v>
       </c>
       <c r="J15" t="n">
-        <v>1.0115118273270172</v>
+        <v>1.0115118269949435</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3240971750231347</v>
+        <v>0.4302746077380952</v>
       </c>
     </row>
     <row r="16">
@@ -1022,10 +1022,10 @@
         <v>0.7195289579098219</v>
       </c>
       <c r="J16" t="n">
-        <v>1.0739349184388465</v>
+        <v>1.0739349183042508</v>
       </c>
       <c r="K16" t="n">
-        <v>2.4738406709450134</v>
+        <v>0.40422975168539327</v>
       </c>
     </row>
     <row r="17">
@@ -1057,10 +1057,10 @@
         <v>0.65950785364819</v>
       </c>
       <c r="J17" t="n">
-        <v>1.1456354179500061</v>
+        <v>1.1456354173388745</v>
       </c>
       <c r="K17" t="n">
-        <v>2.426051473305895</v>
+        <v>0.41219240874999996</v>
       </c>
     </row>
     <row r="18">
@@ -1092,10 +1092,10 @@
         <v>0.7093404195789684</v>
       </c>
       <c r="J18" t="n">
-        <v>1.089360272442853</v>
+        <v>1.0893602717962594</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2838117711684287</v>
+        <v>0.4378644567901234</v>
       </c>
     </row>
     <row r="19">
@@ -1127,10 +1127,10 @@
         <v>0.69509870216185</v>
       </c>
       <c r="J19" t="n">
-        <v>1.0991891388143047</v>
+        <v>1.0991891390702448</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5320145103510687</v>
+        <v>0.3949424443181818</v>
       </c>
     </row>
     <row r="20">
@@ -1162,10 +1162,10 @@
         <v>0.6954623231804846</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1110986849631774</v>
+        <v>1.1110986852515268</v>
       </c>
       <c r="K20" t="n">
-        <v>2.30062786533552</v>
+        <v>0.43466395187499995</v>
       </c>
     </row>
     <row r="21">
@@ -1197,10 +1197,10 @@
         <v>0.7227568478780702</v>
       </c>
       <c r="J21" t="n">
-        <v>1.0814275889561094</v>
+        <v>1.0814275887736715</v>
       </c>
       <c r="K21" t="n">
-        <v>2.338269094179658</v>
+        <v>0.42766677396449704</v>
       </c>
     </row>
     <row r="22">
@@ -1232,10 +1232,10 @@
         <v>0.7223188557503089</v>
       </c>
       <c r="J22" t="n">
-        <v>1.01227150569039</v>
+        <v>1.012271505340468</v>
       </c>
       <c r="K22" t="n">
-        <v>2.3535312507301565</v>
+        <v>0.42489344470588236</v>
       </c>
     </row>
     <row r="23">
@@ -1267,10 +1267,10 @@
         <v>0.6814310042858402</v>
       </c>
       <c r="J23" t="n">
-        <v>1.0730107539870832</v>
+        <v>1.0730107544371796</v>
       </c>
       <c r="K23" t="n">
-        <v>2.5828000031265557</v>
+        <v>0.38717670681818184</v>
       </c>
     </row>
     <row r="24">
@@ -1302,10 +1302,10 @@
         <v>0.7603322727745007</v>
       </c>
       <c r="J24" t="n">
-        <v>1.0906656502385124</v>
+        <v>1.090665649915043</v>
       </c>
       <c r="K24" t="n">
-        <v>2.3410817398354897</v>
+        <v>0.4271529623595505</v>
       </c>
     </row>
     <row r="25">
@@ -1337,10 +1337,10 @@
         <v>0.5907589349375942</v>
       </c>
       <c r="J25" t="n">
-        <v>1.0962492639869423</v>
+        <v>1.0962492638711383</v>
       </c>
       <c r="K25" t="n">
-        <v>2.793017426260849</v>
+        <v>0.3580357181818182</v>
       </c>
     </row>
     <row r="26">
@@ -1372,10 +1372,10 @@
         <v>0.6751852536062485</v>
       </c>
       <c r="J26" t="n">
-        <v>1.0829365596976332</v>
+        <v>1.082936559066091</v>
       </c>
       <c r="K26" t="n">
-        <v>2.428963001251221</v>
+        <v>0.4116983256097561</v>
       </c>
     </row>
     <row r="27">
@@ -1407,10 +1407,10 @@
         <v>0.8157563618287833</v>
       </c>
       <c r="J27" t="n">
-        <v>1.0551673685280414</v>
+        <v>1.0551673683065754</v>
       </c>
       <c r="K27" t="n">
-        <v>2.15750692529616</v>
+        <v>0.46349793295454544</v>
       </c>
     </row>
     <row r="28">
@@ -1442,10 +1442,10 @@
         <v>0.7297948105140969</v>
       </c>
       <c r="J28" t="n">
-        <v>1.0961985320729368</v>
+        <v>1.096198531343079</v>
       </c>
       <c r="K28" t="n">
-        <v>2.4253392522113724</v>
+        <v>0.4123134525423729</v>
       </c>
     </row>
     <row r="29">
@@ -1477,10 +1477,10 @@
         <v>0.660883931218062</v>
       </c>
       <c r="J29" t="n">
-        <v>1.1560955074396024</v>
+        <v>1.156095507821062</v>
       </c>
       <c r="K29" t="n">
-        <v>2.4210000038146973</v>
+        <v>0.413052456875</v>
       </c>
     </row>
     <row r="30">
@@ -1512,10 +1512,10 @@
         <v>0.667593333782257</v>
       </c>
       <c r="J30" t="n">
-        <v>1.1193232607928827</v>
+        <v>1.119323260427803</v>
       </c>
       <c r="K30" t="n">
-        <v>2.426626986854217</v>
+        <v>0.4120946506172839</v>
       </c>
     </row>
     <row r="31">
@@ -1547,10 +1547,10 @@
         <v>0.7292715288363912</v>
       </c>
       <c r="J31" t="n">
-        <v>1.0969850986455778</v>
+        <v>1.0969850983994742</v>
       </c>
       <c r="K31" t="n">
-        <v>2.523065726884829</v>
+        <v>0.3963432222826087</v>
       </c>
     </row>
     <row r="32">
@@ -1582,10 +1582,10 @@
         <v>0.6535829930190233</v>
       </c>
       <c r="J32" t="n">
-        <v>1.0404187490542731</v>
+        <v>1.0404187490845558</v>
       </c>
       <c r="K32" t="n">
-        <v>2.90705238706341</v>
+        <v>0.3439910489473684</v>
       </c>
     </row>
     <row r="33">
@@ -1617,10 +1617,10 @@
         <v>0.697301335614754</v>
       </c>
       <c r="J33" t="n">
-        <v>1.0158209903740587</v>
+        <v>1.0158209898128365</v>
       </c>
       <c r="K33" t="n">
-        <v>2.337583361378422</v>
+        <v>0.4277922306748467</v>
       </c>
     </row>
     <row r="34">
@@ -1652,10 +1652,10 @@
         <v>0.6514189924318351</v>
       </c>
       <c r="J34" t="n">
-        <v>1.134646737921065</v>
+        <v>1.1346467386732388</v>
       </c>
       <c r="K34" t="n">
-        <v>2.625038600143264</v>
+        <v>0.3809467789473684</v>
       </c>
     </row>
     <row r="35">
@@ -1687,10 +1687,10 @@
         <v>0.7034403929051567</v>
       </c>
       <c r="J35" t="n">
-        <v>1.0069557285557191</v>
+        <v>1.0069557284199535</v>
       </c>
       <c r="K35" t="n">
-        <v>2.1750243736803534</v>
+        <v>0.45976496274509804</v>
       </c>
     </row>
     <row r="36">
@@ -1722,10 +1722,10 @@
         <v>0.6361453956026794</v>
       </c>
       <c r="J36" t="n">
-        <v>1.0797353743603735</v>
+        <v>1.0797353736859976</v>
       </c>
       <c r="K36" t="n">
-        <v>2.6723450515419245</v>
+        <v>0.37420317411764703</v>
       </c>
     </row>
     <row r="37">
@@ -1757,10 +1757,10 @@
         <v>0.6895968904978625</v>
       </c>
       <c r="J37" t="n">
-        <v>1.083608057909396</v>
+        <v>1.0836080586917196</v>
       </c>
       <c r="K37" t="n">
-        <v>2.610220586552339</v>
+        <v>0.38310938333333333</v>
       </c>
     </row>
     <row r="38">
@@ -1792,10 +1792,10 @@
         <v>0.731616565942339</v>
       </c>
       <c r="J38" t="n">
-        <v>1.1064864400399739</v>
+        <v>1.1064864399527683</v>
       </c>
       <c r="K38" t="n">
-        <v>2.569652038398716</v>
+        <v>0.3891577478723405</v>
       </c>
     </row>
     <row r="39">
@@ -1827,10 +1827,10 @@
         <v>0.6729433662173328</v>
       </c>
       <c r="J39" t="n">
-        <v>1.074985342950122</v>
+        <v>1.0749853432972976</v>
       </c>
       <c r="K39" t="n">
-        <v>2.6302361964711953</v>
+        <v>0.3801939920903955</v>
       </c>
     </row>
     <row r="40">
@@ -1862,10 +1862,10 @@
         <v>0.6694759774408804</v>
       </c>
       <c r="J40" t="n">
-        <v>1.092171818463036</v>
+        <v>1.0921718191822807</v>
       </c>
       <c r="K40" t="n">
-        <v>2.5392994779265585</v>
+        <v>0.39380939823529415</v>
       </c>
     </row>
     <row r="41">
@@ -1897,10 +1897,10 @@
         <v>0.756896740129233</v>
       </c>
       <c r="J41" t="n">
-        <v>1.0174636799165573</v>
+        <v>1.0174636800902797</v>
       </c>
       <c r="K41" t="n">
-        <v>2.3649196846776936</v>
+        <v>0.4228473407821229</v>
       </c>
     </row>
     <row r="42">
@@ -1932,10 +1932,10 @@
         <v>0.7131932678793632</v>
       </c>
       <c r="J42" t="n">
-        <v>1.0923683698787245</v>
+        <v>1.0923683696939501</v>
       </c>
       <c r="K42" t="n">
-        <v>2.2995169386223178</v>
+        <v>0.43487394390243905</v>
       </c>
     </row>
     <row r="43">
@@ -1967,10 +1967,10 @@
         <v>0.6728335446497741</v>
       </c>
       <c r="J43" t="n">
-        <v>1.1188636398262515</v>
+        <v>1.1188636392438562</v>
       </c>
       <c r="K43" t="n">
-        <v>2.615802993169911</v>
+        <v>0.3822917869318182</v>
       </c>
     </row>
     <row r="44">
@@ -2002,10 +2002,10 @@
         <v>0.8637345834855303</v>
       </c>
       <c r="J44" t="n">
-        <v>1.0093319041097264</v>
+        <v>1.0093319046771014</v>
       </c>
       <c r="K44" t="n">
-        <v>2.0376629970026947</v>
+        <v>0.4907582857954545</v>
       </c>
     </row>
     <row r="45">
@@ -2037,10 +2037,10 @@
         <v>0.7072776349571406</v>
       </c>
       <c r="J45" t="n">
-        <v>1.0802617049619052</v>
+        <v>1.0802617048964438</v>
       </c>
       <c r="K45" t="n">
-        <v>2.3046112579238764</v>
+        <v>0.43391265950920244</v>
       </c>
     </row>
     <row r="46">
@@ -2072,10 +2072,10 @@
         <v>0.647602074895542</v>
       </c>
       <c r="J46" t="n">
-        <v>1.082502596904322</v>
+        <v>1.0825025967297148</v>
       </c>
       <c r="K46" t="n">
-        <v>2.7486014467867688</v>
+        <v>0.3638213904494382</v>
       </c>
     </row>
     <row r="47">
@@ -2107,10 +2107,10 @@
         <v>0.7656364327382535</v>
       </c>
       <c r="J47" t="n">
-        <v>1.020862072363667</v>
+        <v>1.0208620720146673</v>
       </c>
       <c r="K47" t="n">
-        <v>2.1942529484804933</v>
+        <v>0.4557359720238095</v>
       </c>
     </row>
     <row r="48">
@@ -2142,10 +2142,10 @@
         <v>0.7976558292496513</v>
       </c>
       <c r="J48" t="n">
-        <v>1.0524666680230033</v>
+        <v>1.0524666683524055</v>
       </c>
       <c r="K48" t="n">
-        <v>2.231538885228774</v>
+        <v>0.448121252247191</v>
       </c>
     </row>
     <row r="49">
@@ -2177,10 +2177,10 @@
         <v>0.6936851074658369</v>
       </c>
       <c r="J49" t="n">
-        <v>1.2102121896581883</v>
+        <v>1.2102121904708936</v>
       </c>
       <c r="K49" t="n">
-        <v>2.5660057868370236</v>
+        <v>0.3897107342696629</v>
       </c>
     </row>
     <row r="50">
@@ -2212,10 +2212,10 @@
         <v>0.7601326155123481</v>
       </c>
       <c r="J50" t="n">
-        <v>1.1182259288099077</v>
+        <v>1.1182259280925264</v>
       </c>
       <c r="K50" t="n">
-        <v>2.3022298534321632</v>
+        <v>0.43436149485714287</v>
       </c>
     </row>
     <row r="51">
@@ -2247,10 +2247,10 @@
         <v>0.6887253857504702</v>
       </c>
       <c r="J51" t="n">
-        <v>1.1753941792659657</v>
+        <v>1.1753941788401125</v>
       </c>
       <c r="K51" t="n">
-        <v>2.497366926769805</v>
+        <v>0.40042173604651166</v>
       </c>
     </row>
     <row r="52">
@@ -2282,10 +2282,10 @@
         <v>0.7537686207359592</v>
       </c>
       <c r="J52" t="n">
-        <v>1.0136332593339212</v>
+        <v>1.0136332589788515</v>
       </c>
       <c r="K52" t="n">
-        <v>2.242067331417869</v>
+        <v>0.44601693550295857</v>
       </c>
     </row>
     <row r="53">
@@ -2317,10 +2317,10 @@
         <v>0.6924943062550327</v>
       </c>
       <c r="J53" t="n">
-        <v>1.1689970620865684</v>
+        <v>1.1689970625170882</v>
       </c>
       <c r="K53" t="n">
-        <v>2.296047759004148</v>
+        <v>0.435531010062893</v>
       </c>
     </row>
     <row r="54">
@@ -2352,10 +2352,10 @@
         <v>0.8509962687596475</v>
       </c>
       <c r="J54" t="n">
-        <v>1.022483766465992</v>
+        <v>1.0224837661772053</v>
       </c>
       <c r="K54" t="n">
-        <v>2.0211604482202388</v>
+        <v>0.4947652726744186</v>
       </c>
     </row>
     <row r="55">
@@ -2387,10 +2387,10 @@
         <v>0.6374504384390557</v>
       </c>
       <c r="J55" t="n">
-        <v>1.0257207688918482</v>
+        <v>1.0257207695983321</v>
       </c>
       <c r="K55" t="n">
-        <v>2.4786240697692423</v>
+        <v>0.40344964430379743</v>
       </c>
     </row>
     <row r="56">
@@ -2422,10 +2422,10 @@
         <v>0.6652115153863922</v>
       </c>
       <c r="J56" t="n">
-        <v>1.0874800549701176</v>
+        <v>1.087480055601787</v>
       </c>
       <c r="K56" t="n">
-        <v>2.5856437542289497</v>
+        <v>0.3867508808139535</v>
       </c>
     </row>
     <row r="57">
@@ -2457,10 +2457,10 @@
         <v>0.706146688600143</v>
       </c>
       <c r="J57" t="n">
-        <v>1.1982692262301078</v>
+        <v>1.1982692255515852</v>
       </c>
       <c r="K57" t="n">
-        <v>2.3791090818968685</v>
+        <v>0.4203254101190476</v>
       </c>
     </row>
     <row r="58">
@@ -2492,10 +2492,10 @@
         <v>0.6849156428845471</v>
       </c>
       <c r="J58" t="n">
-        <v>1.1929544597500708</v>
+        <v>1.1929544595489803</v>
       </c>
       <c r="K58" t="n">
-        <v>2.511258164226119</v>
+        <v>0.39820676918604647</v>
       </c>
     </row>
     <row r="59">
@@ -2527,10 +2527,10 @@
         <v>0.7098232213662876</v>
       </c>
       <c r="J59" t="n">
-        <v>1.1404583354791007</v>
+        <v>1.1404583360676075</v>
       </c>
       <c r="K59" t="n">
-        <v>2.5076666223652224</v>
+        <v>0.39877709044943815</v>
       </c>
     </row>
     <row r="60">
@@ -2562,10 +2562,10 @@
         <v>0.812773837989379</v>
       </c>
       <c r="J60" t="n">
-        <v>1.0568430217922242</v>
+        <v>1.0568430217784137</v>
       </c>
       <c r="K60" t="n">
-        <v>2.1654240303229333</v>
+        <v>0.4618033170454546</v>
       </c>
     </row>
     <row r="61">
@@ -2597,10 +2597,10 @@
         <v>0.685937448129109</v>
       </c>
       <c r="J61" t="n">
-        <v>1.0069746904305574</v>
+        <v>1.006974690620093</v>
       </c>
       <c r="K61" t="n">
-        <v>2.4492029186949797</v>
+        <v>0.4082961</v>
       </c>
     </row>
     <row r="62">
@@ -2632,10 +2632,10 @@
         <v>0.6618547176205479</v>
       </c>
       <c r="J62" t="n">
-        <v>1.2754397931780135</v>
+        <v>1.275439792446783</v>
       </c>
       <c r="K62" t="n">
-        <v>2.7196300820688104</v>
+        <v>0.36769706555555554</v>
       </c>
     </row>
     <row r="63">
@@ -2667,10 +2667,10 @@
         <v>0.6541538774493242</v>
       </c>
       <c r="J63" t="n">
-        <v>1.1040555549992457</v>
+        <v>1.1040555557575977</v>
       </c>
       <c r="K63" t="n">
-        <v>2.5987769217674552</v>
+        <v>0.38479639823529416</v>
       </c>
     </row>
   </sheetData>
